--- a/201709资源商城迭代/windows/9月课程中心迭代 - 技术开发量 粗估（后端）.xlsx
+++ b/201709资源商城迭代/windows/9月课程中心迭代 - 技术开发量 粗估（后端）.xlsx
@@ -392,10 +392,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>课程中心-前台
+（5 +1.5 +2.5 = 9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0）课程审核 
+     原逻辑不变；
+（0.5）企业课程列表
+     （复用课程索引，包装返回结果 0.5d）
+（1）课程前台分类目录
+     （内训课程分类 1d）
+（1）创建CP
+     （创建+ 编辑 + 标签展示 1d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建内训课／公开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0.5）创建期次
+     （增加“线下培训” + 标签 + 收费兼容 0.5d）
+ (2.5) 内训课期次编辑
+     （期次draft变更 0.5d + 审核逻辑变更 0.5d + 讲师搜索接口 0.5d + 添加讲师接口 0.5d + 价格设置 0.5d）
+（1）s2_term_schedule 表复用，内训没有起止时间 或有问题！ 校验+ 保存  ？ 1d
+（0.5）公开课期次编辑
+     （期次草稿 变更 0.5d）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加讲师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）讲师列表
+     （列表获取 + 删除（删除与课程的关联关系） 1d）
+（2）添加／编辑讲师
+     （讲师账号关联、校验 1d + 讲师信息编辑 1d）
+     （讲师 + 账号 关联？期次 + 讲师的 关联？机构 + 讲师的 关联？）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构主页设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（0.5）焦点图设置
+（0.5）资料设置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0.5）运营后台-创建企业站点
+（1）企业站点列表 + 企业站点查看资料
+     （索引增加类型 + 搜索接口 + 列表增加列显示）
+（1）方法注解设计实现 
+（1.5）用户访受限看视频的提示
+     （并发数redis实现 + 检测接口 + 范围排查）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+（0.5）授课方式 + 授课时间 + 列表兼容性考虑
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程中心-运营后台
+（2.5）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程中心-机构后台
+（0.5+4.5+3+1 =9）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“并发访问人数”销售
+     （4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>（0.5）讲师介绍
      （json 信息 + 视频列表获取）
 （1）主讲课程
-     （内训课 + 公开课列表）</t>
+     （内训课 + 公开课列表）
+（0.5）讲师详情页新增，后端提供 controller支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1.5）主页 + 关于我们
+     （机构基本信息、焦点图列表获取 0.5d + 推荐讲师0.5d + 推荐课程 + 0.5d）
+（0.5）课程
+     （内训课 + 公开课分页列表 0.5d）
+（0.5）讲师
+     （机构所有讲师 分页显示 0.5d）
+（0.5）机构详情页新增，后端提供 controller支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -410,101 +515,15 @@
 （1）内训课详情页
      （基本信息兼容 0.5d + 讲师列表、机构信息 0.5d）
 （1）公开课详情页
-     （基本信息兼容 0.5d + 当前展示期次tab 0.5d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1.5）主页 + 关于我们
-     （机构基本信息、焦点图列表获取 0.5d + 推荐讲师0.5d + 推荐课程 + 0.5d）
-（0.5）课程
-     （内训课 + 公开课分页列表 0.5d）
-（0.5d）讲师
-     （机构所有讲师 分页显示 0.5d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心-前台
-（5 +1.5 +2.5 = 9）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0）课程审核 
-     原逻辑不变；
-（0.5）企业课程列表
-     （复用课程索引，包装返回结果 0.5d）
-（1）课程前台分类目录
-     （内训课程分类 1d）
-（1）创建CP
-     （创建+ 编辑 + 标签展示 1d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建内训课／公开课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0.5）创建期次
-     （增加“线下培训” + 标签 + 收费兼容 0.5d）
- (2.5) 内训课期次编辑
-     （期次draft变更 0.5d + 审核逻辑变更 0.5d + 讲师搜索接口 0.5d + 添加讲师接口 0.5d + 价格设置 0.5d）
-（1）s2_term_schedule 表复用，内训没有起止时间 或有问题！ 校验+ 保存  ？ 1d
-（0.5）公开课期次编辑
-     （期次草稿 变更 0.5d）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加讲师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（1）讲师列表
-     （列表获取 + 删除（删除与课程的关联关系） 1d）
-（2）添加／编辑讲师
-     （讲师账号关联、校验 1d + 讲师信息编辑 1d）
-     （讲师 + 账号 关联？期次 + 讲师的 关联？机构 + 讲师的 关联？）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构主页设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">（0.5）焦点图设置
-（0.5）资料设置
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（0.5）运营后台-创建企业站点
-（1）企业站点列表 + 企业站点查看资料
-     （索引增加类型 + 搜索接口 + 列表增加列显示）
-（1）方法注解设计实现 
-（1.5）用户访受限看视频的提示
-     （并发数redis实现 + 检测接口 + 范围排查）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-（0.5）授课方式 + 授课时间 + 列表兼容性考虑
-</t>
+     （基本信息兼容 0.5d + 当前展示期次tab 0.5d）
+（1）课程详情页 增加预览，后端提供 controller支持
+     （方法按期次类型考虑重构 + 预览的时候，取草稿数据）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>【备注】：该评估仅为粗估，,仅作为策划拆分迭代节奏的参考，不作为实际迭代排期WBS，实际WBS需要开发模块设计评审之后才能做到更精准的估算。
-【后端】：开发（含自测）24.5 + 联调（2*3）+ 冒烟（3*3） = 39.5
+【后端】：开发（含自测，22.5+4） + 联调（2*3）+ 冒烟（3*3） = 41.5
 【</t>
     </r>
     <r>
@@ -517,21 +536,6 @@
       </rPr>
       <t>前端】：</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心-运营后台
-（2.5）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程中心-机构后台
-（0.5+4.5+3+1 =9）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“并发访问人数”销售
-     （4）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +653,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81FFBA"/>
+        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,6 +842,51 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -856,56 +905,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -922,6 +929,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -933,12 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -960,6 +964,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FF81FFBA"/>
       <color rgb="FF2FFF8D"/>
       <color rgb="FF4BD0FF"/>
@@ -1265,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1282,28 +1287,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="A1" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -1332,46 +1337,46 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="24">
+      <c r="H4" s="39">
         <v>0</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="162" x14ac:dyDescent="0.15">
-      <c r="A6" s="45"/>
-      <c r="B6" s="31" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="189" x14ac:dyDescent="0.15">
+      <c r="A6" s="46"/>
+      <c r="B6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>73</v>
+      <c r="C6" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -1380,18 +1385,18 @@
         <v>4</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="46"/>
+      <c r="B7" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>72</v>
+      <c r="C7" s="23" t="s">
+        <v>88</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -1400,18 +1405,18 @@
         <v>4</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="30"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
-      <c r="B8" s="31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A8" s="47"/>
+      <c r="B8" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>74</v>
+      <c r="C8" s="23" t="s">
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
@@ -1420,131 +1425,131 @@
         <v>4</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="30"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+      <c r="A9" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="27">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
-      <c r="A9" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="35" t="s">
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="36">
-        <v>2.5</v>
-      </c>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="38" t="s">
+      <c r="D11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="31"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="31">
+        <v>4.5</v>
+      </c>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31">
+        <v>3</v>
+      </c>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
+      <c r="B13" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="31">
+        <v>1</v>
+      </c>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.15">
+      <c r="A14" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="40">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
-      <c r="B11" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A12" s="47"/>
-      <c r="B12" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40">
-        <v>3</v>
-      </c>
-      <c r="I12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" s="15" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="48"/>
-      <c r="B13" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="39" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="40">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="51">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53">
         <v>4</v>
       </c>
     </row>
@@ -1564,7 +1569,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1580,7 +1585,7 @@
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1604,7 +1609,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="14">
         <f>SUM(H4:H17)</f>
-        <v>39.5</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
@@ -3275,26 +3280,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -3333,10 +3338,10 @@
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="39">
         <v>1.5</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="39">
         <v>4</v>
       </c>
     </row>
@@ -3354,8 +3359,8 @@
       <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>

--- a/201709资源商城迭代/windows/9月课程中心迭代 - 技术开发量 粗估（后端）.xlsx
+++ b/201709资源商城迭代/windows/9月课程中心迭代 - 技术开发量 粗估（后端）.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
     <t>功能模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,15 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>（0.5）运营后台-创建企业站点
-（1）企业站点列表 + 企业站点查看资料
-     （索引增加类型 + 搜索接口 + 列表增加列显示）
-（1）方法注解设计实现 
-（1.5）用户访受限看视频的提示
-     （并发数redis实现 + 检测接口 + 范围排查）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 （0.5）授课方式 + 授课时间 + 列表兼容性考虑
 </t>
@@ -478,11 +469,6 @@
   <si>
     <t>课程中心-机构后台
 （0.5+4.5+3+1 =9）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“并发访问人数”销售
-     （4）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -523,7 +509,7 @@
   <si>
     <r>
       <t>【备注】：该评估仅为粗估，,仅作为策划拆分迭代节奏的参考，不作为实际迭代排期WBS，实际WBS需要开发模块设计评审之后才能做到更精准的估算。
-【后端】：开发（含自测，22.5+4） + 联调（2*3）+ 冒烟（3*3） = 41.5
+【后端】：开发（含自测，22.5） + 联调（2*3）+ 冒烟（3*3） = 37.5
 【</t>
     </r>
     <r>
@@ -608,7 +594,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,12 +634,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF4BD0FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF3300"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -928,21 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1268,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1288,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -1376,7 +1341,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
@@ -1396,7 +1361,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>4</v>
@@ -1416,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>4</v>
@@ -1432,7 +1397,7 @@
     </row>
     <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="26" t="s">
@@ -1453,13 +1418,13 @@
     </row>
     <row r="10" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A10" s="45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>74</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>4</v>
@@ -1537,80 +1502,72 @@
       </c>
       <c r="I13" s="36"/>
     </row>
-    <row r="14" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="53">
-        <v>4</v>
-      </c>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="14"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="14"/>
+      <c r="H15" s="14">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="14"/>
       <c r="G16" s="19"/>
       <c r="H16" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="17"/>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="14"/>
       <c r="G17" s="19"/>
       <c r="H17" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="14">
-        <f>SUM(H4:H17)</f>
-        <v>41.5</v>
-      </c>
+        <f>SUM(H4:H16)</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C19" s="5"/>
@@ -1653,14 +1610,12 @@
       <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C25" s="5"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -1702,7 +1657,6 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C32" s="5"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -3226,11 +3180,6 @@
       <c r="F336" s="8"/>
       <c r="G336" s="8"/>
       <c r="H336" s="8"/>
-    </row>
-    <row r="337" spans="6:8" x14ac:dyDescent="0.15">
-      <c r="F337" s="8"/>
-      <c r="G337" s="8"/>
-      <c r="H337" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="13">
